--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件收案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件收案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537651</v>
+        <v>551395</v>
       </c>
       <c r="C2" t="n">
-        <v>62542</v>
+        <v>79208</v>
       </c>
       <c r="D2" t="n">
-        <v>858724</v>
+        <v>1021838</v>
       </c>
       <c r="E2" t="n">
-        <v>274575</v>
+        <v>664777</v>
       </c>
       <c r="F2" t="n">
-        <v>56316</v>
+        <v>38229</v>
       </c>
       <c r="G2" t="n">
-        <v>84693</v>
+        <v>321681</v>
       </c>
       <c r="H2" t="n">
-        <v>2266695</v>
+        <v>3222555</v>
       </c>
       <c r="I2" t="n">
-        <v>60275</v>
+        <v>81547</v>
       </c>
       <c r="J2" t="n">
-        <v>82118</v>
+        <v>126879</v>
       </c>
       <c r="K2" t="n">
-        <v>54135</v>
+        <v>68059</v>
       </c>
       <c r="L2" t="n">
-        <v>99445</v>
+        <v>131396</v>
       </c>
       <c r="M2" t="n">
-        <v>96221</v>
+        <v>137546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>523777</v>
+        <v>533401</v>
       </c>
       <c r="C3" t="n">
-        <v>71569</v>
+        <v>68711</v>
       </c>
       <c r="D3" t="n">
-        <v>812269</v>
+        <v>1065056</v>
       </c>
       <c r="E3" t="n">
-        <v>278086</v>
+        <v>772464</v>
       </c>
       <c r="F3" t="n">
-        <v>59146</v>
+        <v>34781</v>
       </c>
       <c r="G3" t="n">
-        <v>98112</v>
+        <v>308622</v>
       </c>
       <c r="H3" t="n">
-        <v>2266476</v>
+        <v>3333595</v>
       </c>
       <c r="I3" t="n">
-        <v>62405</v>
+        <v>78808</v>
       </c>
       <c r="J3" t="n">
-        <v>93769</v>
+        <v>130860</v>
       </c>
       <c r="K3" t="n">
-        <v>55753</v>
+        <v>64469</v>
       </c>
       <c r="L3" t="n">
-        <v>110864</v>
+        <v>139120</v>
       </c>
       <c r="M3" t="n">
-        <v>100726</v>
+        <v>137303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520892</v>
+        <v>567008</v>
       </c>
       <c r="C4" t="n">
-        <v>75302</v>
+        <v>75682</v>
       </c>
       <c r="D4" t="n">
-        <v>736087</v>
+        <v>1278712</v>
       </c>
       <c r="E4" t="n">
-        <v>310253</v>
+        <v>898476</v>
       </c>
       <c r="F4" t="n">
-        <v>53108</v>
+        <v>27554</v>
       </c>
       <c r="G4" t="n">
-        <v>109338</v>
+        <v>349770</v>
       </c>
       <c r="H4" t="n">
-        <v>2247841</v>
+        <v>3776137</v>
       </c>
       <c r="I4" t="n">
-        <v>68050</v>
+        <v>86209</v>
       </c>
       <c r="J4" t="n">
-        <v>94535</v>
+        <v>139456</v>
       </c>
       <c r="K4" t="n">
-        <v>59873</v>
+        <v>63819</v>
       </c>
       <c r="L4" t="n">
-        <v>119727</v>
+        <v>149713</v>
       </c>
       <c r="M4" t="n">
-        <v>100676</v>
+        <v>139738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>514251</v>
+        <v>620185</v>
       </c>
       <c r="C5" t="n">
-        <v>77171</v>
+        <v>61226</v>
       </c>
       <c r="D5" t="n">
-        <v>705018</v>
+        <v>1486786</v>
       </c>
       <c r="E5" t="n">
-        <v>336109</v>
+        <v>952756</v>
       </c>
       <c r="F5" t="n">
-        <v>56565</v>
+        <v>23117</v>
       </c>
       <c r="G5" t="n">
-        <v>122480</v>
+        <v>366668</v>
       </c>
       <c r="H5" t="n">
-        <v>2265362</v>
+        <v>4121224</v>
       </c>
       <c r="I5" t="n">
-        <v>71829</v>
+        <v>99955</v>
       </c>
       <c r="J5" t="n">
-        <v>93750</v>
+        <v>163960</v>
       </c>
       <c r="K5" t="n">
-        <v>64345</v>
+        <v>70191</v>
       </c>
       <c r="L5" t="n">
-        <v>119498</v>
+        <v>122138</v>
       </c>
       <c r="M5" t="n">
-        <v>104346</v>
+        <v>154242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500363</v>
+        <v>696358</v>
       </c>
       <c r="C6" t="n">
-        <v>75063</v>
+        <v>55183</v>
       </c>
       <c r="D6" t="n">
-        <v>686895</v>
+        <v>1753767</v>
       </c>
       <c r="E6" t="n">
-        <v>351820</v>
+        <v>1069454</v>
       </c>
       <c r="F6" t="n">
-        <v>57116</v>
+        <v>19174</v>
       </c>
       <c r="G6" t="n">
-        <v>126047</v>
+        <v>386576</v>
       </c>
       <c r="H6" t="n">
-        <v>2240759</v>
+        <v>4589375</v>
       </c>
       <c r="I6" t="n">
-        <v>69148</v>
+        <v>118649</v>
       </c>
       <c r="J6" t="n">
-        <v>98443</v>
+        <v>173024</v>
       </c>
       <c r="K6" t="n">
-        <v>64018</v>
+        <v>76515</v>
       </c>
       <c r="L6" t="n">
-        <v>105744</v>
+        <v>68259</v>
       </c>
       <c r="M6" t="n">
-        <v>106102</v>
+        <v>172416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523761</v>
+        <v>931671</v>
       </c>
       <c r="C7" t="n">
-        <v>76452</v>
+        <v>55129</v>
       </c>
       <c r="D7" t="n">
-        <v>793301</v>
+        <v>2361570</v>
       </c>
       <c r="E7" t="n">
-        <v>406191</v>
+        <v>1389850</v>
       </c>
       <c r="F7" t="n">
-        <v>49806</v>
+        <v>22319</v>
       </c>
       <c r="G7" t="n">
-        <v>150992</v>
+        <v>483311</v>
       </c>
       <c r="H7" t="n">
-        <v>2463775</v>
+        <v>6013386</v>
       </c>
       <c r="I7" t="n">
-        <v>72989</v>
+        <v>160839</v>
       </c>
       <c r="J7" t="n">
-        <v>100432</v>
+        <v>244825</v>
       </c>
       <c r="K7" t="n">
-        <v>66973</v>
+        <v>94620</v>
       </c>
       <c r="L7" t="n">
-        <v>107015</v>
+        <v>42785</v>
       </c>
       <c r="M7" t="n">
-        <v>115863</v>
+        <v>226467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>592651</v>
+        <v>1055430</v>
       </c>
       <c r="C8" t="n">
-        <v>72041</v>
+        <v>58888</v>
       </c>
       <c r="D8" t="n">
-        <v>905695</v>
+        <v>2652918</v>
       </c>
       <c r="E8" t="n">
-        <v>494684</v>
+        <v>1657329</v>
       </c>
       <c r="F8" t="n">
-        <v>48818</v>
+        <v>21351</v>
       </c>
       <c r="G8" t="n">
-        <v>295531</v>
+        <v>467396</v>
       </c>
       <c r="H8" t="n">
-        <v>2933514</v>
+        <v>6717811</v>
       </c>
       <c r="I8" t="n">
-        <v>83352</v>
+        <v>174875</v>
       </c>
       <c r="J8" t="n">
-        <v>118873</v>
+        <v>252620</v>
       </c>
       <c r="K8" t="n">
-        <v>78952</v>
+        <v>95983</v>
       </c>
       <c r="L8" t="n">
-        <v>113981</v>
+        <v>31697</v>
       </c>
       <c r="M8" t="n">
-        <v>128936</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>591425</v>
-      </c>
-      <c r="C9" t="n">
-        <v>79236</v>
-      </c>
-      <c r="D9" t="n">
-        <v>978013</v>
-      </c>
-      <c r="E9" t="n">
-        <v>603906</v>
-      </c>
-      <c r="F9" t="n">
-        <v>38837</v>
-      </c>
-      <c r="G9" t="n">
-        <v>318643</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3151716</v>
-      </c>
-      <c r="I9" t="n">
-        <v>87201</v>
-      </c>
-      <c r="J9" t="n">
-        <v>127972</v>
-      </c>
-      <c r="K9" t="n">
-        <v>75773</v>
-      </c>
-      <c r="L9" t="n">
-        <v>115663</v>
-      </c>
-      <c r="M9" t="n">
-        <v>135047</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>551395</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79208</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1021838</v>
-      </c>
-      <c r="E10" t="n">
-        <v>664777</v>
-      </c>
-      <c r="F10" t="n">
-        <v>38229</v>
-      </c>
-      <c r="G10" t="n">
-        <v>321681</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3222555</v>
-      </c>
-      <c r="I10" t="n">
-        <v>81547</v>
-      </c>
-      <c r="J10" t="n">
-        <v>126879</v>
-      </c>
-      <c r="K10" t="n">
-        <v>68059</v>
-      </c>
-      <c r="L10" t="n">
-        <v>131396</v>
-      </c>
-      <c r="M10" t="n">
-        <v>137546</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>533401</v>
-      </c>
-      <c r="C11" t="n">
-        <v>68711</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1065056</v>
-      </c>
-      <c r="E11" t="n">
-        <v>772464</v>
-      </c>
-      <c r="F11" t="n">
-        <v>34781</v>
-      </c>
-      <c r="G11" t="n">
-        <v>308622</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3333595</v>
-      </c>
-      <c r="I11" t="n">
-        <v>78808</v>
-      </c>
-      <c r="J11" t="n">
-        <v>130860</v>
-      </c>
-      <c r="K11" t="n">
-        <v>64469</v>
-      </c>
-      <c r="L11" t="n">
-        <v>139120</v>
-      </c>
-      <c r="M11" t="n">
-        <v>137303</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>567008</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75682</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1278712</v>
-      </c>
-      <c r="E12" t="n">
-        <v>898476</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27554</v>
-      </c>
-      <c r="G12" t="n">
-        <v>349770</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3776137</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86209</v>
-      </c>
-      <c r="J12" t="n">
-        <v>139456</v>
-      </c>
-      <c r="K12" t="n">
-        <v>63819</v>
-      </c>
-      <c r="L12" t="n">
-        <v>149713</v>
-      </c>
-      <c r="M12" t="n">
-        <v>139738</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>620185</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61226</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1486786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>952756</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23117</v>
-      </c>
-      <c r="G13" t="n">
-        <v>366668</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4121224</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99955</v>
-      </c>
-      <c r="J13" t="n">
-        <v>163960</v>
-      </c>
-      <c r="K13" t="n">
-        <v>70191</v>
-      </c>
-      <c r="L13" t="n">
-        <v>122138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>154242</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>696358</v>
-      </c>
-      <c r="C14" t="n">
-        <v>55183</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1753767</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1069454</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19174</v>
-      </c>
-      <c r="G14" t="n">
-        <v>386576</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4589375</v>
-      </c>
-      <c r="I14" t="n">
-        <v>118649</v>
-      </c>
-      <c r="J14" t="n">
-        <v>173024</v>
-      </c>
-      <c r="K14" t="n">
-        <v>76515</v>
-      </c>
-      <c r="L14" t="n">
-        <v>68259</v>
-      </c>
-      <c r="M14" t="n">
-        <v>172416</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>931671</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2361570</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1389850</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22319</v>
-      </c>
-      <c r="G15" t="n">
-        <v>483311</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6013386</v>
-      </c>
-      <c r="I15" t="n">
-        <v>160839</v>
-      </c>
-      <c r="J15" t="n">
-        <v>244825</v>
-      </c>
-      <c r="K15" t="n">
-        <v>94620</v>
-      </c>
-      <c r="L15" t="n">
-        <v>42785</v>
-      </c>
-      <c r="M15" t="n">
-        <v>226467</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1055430</v>
-      </c>
-      <c r="C16" t="n">
-        <v>58888</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2652918</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1657329</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21351</v>
-      </c>
-      <c r="G16" t="n">
-        <v>467396</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6717811</v>
-      </c>
-      <c r="I16" t="n">
-        <v>174875</v>
-      </c>
-      <c r="J16" t="n">
-        <v>252620</v>
-      </c>
-      <c r="K16" t="n">
-        <v>95983</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31697</v>
-      </c>
-      <c r="M16" t="n">
         <v>249324</v>
       </c>
     </row>
